--- a/data/hotels_by_city/Dallas/Dallas_shard_165.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_165.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="610">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>njr453260</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Rick P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r584434276-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>pbast24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r573482313-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Kathy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r570640762-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>The first night they would only give us the smoking room and it was so filthy we could not sleep in it. They moved us into another room that was also dirty with moldy and stained sheets. This place should be condemned.More</t>
   </si>
   <si>
+    <t>885earlc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r535168625-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Marcia V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r529714059-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>10/03/2017</t>
   </si>
   <si>
+    <t>masoncaulk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r520766620-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>On the days where the Texas heat is unbearable the glistening pool just calls your name. Your catered to for your every need, every morning the breakfast is great. And the rooms are so comfortable u just want to lie around all day so it's a mental battle weather to totally relax in the pool or have a lazy day of comfort in the exceptional beds and room. I'll definitely stay here again I've even pre booked next weekend for me and my girlfriend to have a repeat of the mental brake days inn offers!</t>
   </si>
   <si>
+    <t>makahahawaii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r516261065-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>tnt117</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r509806186-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>We needed a room for the night. When we arrived at just after midnight, we checked in and got our room key. It was very hard to hear the guy at the window over the outside noise. We get to our room and go in. The television was blaring, the bathroom had a used towel on the floor and a washrag in the tub, the toilet seat was up, trashcan full. The coffee maker had been used and one of the beds had very clearly been in use. It was as if the person using the room had just stepped out for a smoke break. We reloaded our things and went to get another room. The second room was better, unused, but not entirely clean. The bedding had holes in the comforter, the shower curtain had black stains on the inside and the hair dryer had tiny hairs all over it. We were severely disappointed.More</t>
   </si>
   <si>
+    <t>kenmF1770VV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r501195131-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>n0rienem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r500868358-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -369,6 +402,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>vrazhilov</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r499541025-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t>Needed a place to rest for the night so I made a booking online thru Wyndham website. Arrived at hotel and was told that was a very low price, lower than what they would have offered me in person at the check in counter. In addition, I would need to be in a smoking room. I absolutely HATE cigarette smoke and asked if I could please just get ANY non-smoking room. It was after 11pm at night, they had multiple other rooms available and I could have been given any of those to make sure my stay was comfortable. Woman at the counter refused and said I would have to be in the smoking room. At least they honored the price because at first she reacted like the price I got was wrong or something.More</t>
   </si>
   <si>
+    <t>F8759OJdeborahm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r497201867-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>Ceiling leaked from 2nd floor bathroom tpilet into our bathroom toilet (you picture it) Towels looked dirty and used cigarette burns everywhere in couches bed spreads etc need to be replaced.  Mold in ceiling of shower</t>
   </si>
   <si>
+    <t>ryan t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r497027167-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -420,6 +462,9 @@
     <t>the rooms are nice and clean with a outdoor pool at the property. decent hot breakfast in the morning. staff was very friendly and helpful.easy access to the property.good location and lots of restaurant by the place.</t>
   </si>
   <si>
+    <t>Melody B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r492069093-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -435,6 +480,9 @@
     <t>Not pleased. Most outlets not working. Cigarette burns in spreads and sheets in a non smoking room.Will not be staying at Days Inn in the future.</t>
   </si>
   <si>
+    <t>M7528FNjaym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r491592220-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -450,6 +498,9 @@
     <t>We were not told that the only room available was a smoking room and the plug with the microwave and refrigerator was not working so our food spoiled after having the guy from the front office came in and pushed the breaker button on the plug and said it works but every time we started the microwave it would go off he came back and said he would check with the downstairs room but never came back to let us know anything we also were not told what time breakfast was over so we missed it</t>
   </si>
   <si>
+    <t>A5668FSlindac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r486966147-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -462,6 +513,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>86teresau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r484682642-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -471,6 +525,9 @@
     <t>05/16/2017</t>
   </si>
   <si>
+    <t>jamespW1325AM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r481831640-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -483,6 +540,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>michellecK7557XB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r479570680-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -498,6 +558,9 @@
     <t>We were in town for a wedding that weekend and for the price we paid U think it was a great deal. Location was awesome and the staff was very accommodating. Thank you!</t>
   </si>
   <si>
+    <t>Y7571JDsusanp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r475422029-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -507,6 +570,9 @@
     <t>04/13/2017</t>
   </si>
   <si>
+    <t>RicWalton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r474333009-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -525,6 +591,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>brij_16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r463333529-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -540,6 +609,9 @@
     <t xml:space="preserve">I stayed last month when I was there for conference. I was really pleased with my stay.  Room was recently upgraded with hardwood flooring. Very clean. I loved it.  Front staff was very helpful and kind. I would definitely recommend staying in here. It's was great stay.  No complains. </t>
   </si>
   <si>
+    <t>C8424RKthomasp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r455899576-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -555,6 +627,9 @@
     <t>Overall a good value.  Bfast was cold and no boiling water for oatmeal....water just warm, thus oatmeal ugh.  Rooms clean and had coffee also.  Very nice people there made the trip nice.</t>
   </si>
   <si>
+    <t>jesses970</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r454546796-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -570,6 +645,9 @@
     <t>The Door had been kicked in and couldn't lock, toilet was about to fall over, towels were dirty, and there was a sonic with food in it under a pillow. They did refund money</t>
   </si>
   <si>
+    <t>J8708ACrobertc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r451102751-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -579,6 +657,9 @@
     <t>01/10/2017</t>
   </si>
   <si>
+    <t>Juan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r443362648-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -597,6 +678,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Ras9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r436716111-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -612,6 +696,9 @@
     <t xml:space="preserve">I love this place because it's so quite and pleasant. I will surely be back again. Rooms are big and very clean. Front desk is very helpful and always willing to help with anything. It is newly renovated and well maintained. </t>
   </si>
   <si>
+    <t>patrickleon55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r436238004-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -628,6 +715,9 @@
   </si>
   <si>
     <t>October 2016</t>
+  </si>
+  <si>
+    <t>Ian Z</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r435321544-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
@@ -663,6 +753,9 @@
 "Continental Breakfast" was the joke of the stay. Cereal, hard biscuits, cold gravy (there is a microwave), milk in a bucket....... Should I go on? We received a better value and quality by spending $8 at...Refrigerator did not work. They replaced it after two days, but by then it was too late to salvage some food. Front desk clerk got upset that I used the ice machine multiple times to fill a cooler to keep things cold.Shower was clogged with hair (not mine as I am bald). Backed up water up to my calf. When I informed the desk, he sent someone to clean out the drain (which I had already done). They left the mess on the side of the tub.Minimal power outlets in the rooms, and only half of them worked. Had to charge cell phones in the bathroom. No alarm clock and no wake-up call from the front desk. Room card entry from the parking lot does not work. Still gotta walk around.The only parking lot for the property was outside the room. But the staff from the restaurant next door feel the need to park in those spaces blocking your access to your room. And restaurant management and staff are very rude and condescending when you ask them about it.Ice machine and laundry facilities are located outside, and there is no business center. Stairwell is cracked and broken on one side."Continental Breakfast" was the joke of the stay. Cereal, hard biscuits, cold gravy (there is a microwave), milk in a bucket....... Should I go on? We received a better value and quality by spending $8 at McDonalds up the road.For $60 a night, this room was definitely not a value in any market. There are motel rooms in Albuquerque for $25 a night that look and feel much better than this, with better accommodations. And the Breaking Bad attractions are a bonus.This is a Days Inn hotel, part of the Wyndham Properties. But it is very obvious that Wyndham stopped doing inspections on properties that carry their name. This is the second Days Inn I have stayed at in a year. While I am not racist by any means, the ownership at this property (and the other in Gallup, NM) don't share the same American values and standards we Americans are used to. It's time Days Inn and Wyndham inspect ALL properties for compliance and close the ones that are failing.I WILL NEVER BE STAYING AT ANOTHER DAYS INN PERIOD. I MIGHT SEE IF ANIMAL SERVICES HAS A KENNEL AT THE SHELTER NEARBY.More</t>
   </si>
   <si>
+    <t>kenny o</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r432128842-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -678,6 +771,9 @@
     <t>Horrible, air conditioner was shut off and room was hot. Food was terrible. They charged my card 62$ and put another 62$ hold for 48 hours causing an overdraft. They absolutely refused to call my bank and drop the extra preauthorization charge!</t>
   </si>
   <si>
+    <t>172kamelas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r430174179-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -687,12 +783,18 @@
     <t>10/20/2016</t>
   </si>
   <si>
+    <t>12marijke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r429524896-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
     <t>429524896</t>
   </si>
   <si>
+    <t>marthacZ2163NK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r421529826-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -705,6 +807,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>923migdalias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r391865094-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -723,6 +828,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Douglas C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r390391959-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -741,6 +849,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>garyblack2104</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r386781149-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -756,6 +867,9 @@
     <t>We had a wonderful stay and our kids enjoyed the outdoor pool. Staff was very friendly and the rooms were very clean. Hot breakfast was a good complemantary option. There are good restaurants just few minutes away from the motel. We will be back again.</t>
   </si>
   <si>
+    <t>CBravo16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r382941492-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -774,6 +888,9 @@
     <t>Hotel is on a convenient location from Fort Worth downtown, easy on/off access to highway. We had the room for 2 nights. The room was very spacious and comfortable with nice flat screen TVs, lot of options on what to watch. The bathroom was very clean and tidy. The service provided by the Housekeeping staff was amazing, the front desk clerk was very aware of the places to visit in DFW area. The hot breakfast, free of cost, was a surprise and the best part was the parking which was right in front of your room. The hotel had a nice well lit pool in the center of the property, which was a great plus. Will definitely stay here again on our next trip.More</t>
   </si>
   <si>
+    <t>685disgusted</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r382506122-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -792,6 +909,9 @@
     <t>The Days Inn Burleson was the nastiest hotel I've ever stayed in.  It was filthy, bug ridden and noisy throughout the night.  The room smelled as dirty as it looked: the comforter had burn holes, there were stains on the furniture and carpet, the A/C was so loud you couldn't hear the tv.  There were spiders and roaches in the bathroom, the floor of the bathtub was partially collapsed with a shower mat covering it and the shower curtain rod was falling down.  The entire night there was loud noise from people at the pool, laundry, and loud vehicles.  This was the worst hotel I've ever been to, I will not stay there again even if it was free.More</t>
   </si>
   <si>
+    <t>711terryh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r382203283-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -807,6 +927,9 @@
     <t>Worst room ever. As I approached the door at 10PM it was ajar. I pushed it open to the smell of stale cigarette smoke in a non smoking room. The comforter and sheets had cigarette burns. The TV did not work. All night I felt bugs on me. In the morning I found bugs in the bed. The water pressure was horrible. The pool had people in in (over 3O) until after midnight. If I had not been exhausted from driving over 5 hours in the middle of the night the night before due to a family emergency I would not have stayed. I did not feel safe.</t>
   </si>
   <si>
+    <t>Jonathan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r370545076-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -825,6 +948,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>josecR9957ME</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r370197647-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -837,6 +963,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Dona B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r368153460-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -852,6 +981,9 @@
     <t xml:space="preserve">It was very noisy. Could hear footsteps,  doors closing, so not a good night sleep. We were just traveling through after driving nine hours and had many more miles to drive the next day. </t>
   </si>
   <si>
+    <t>U9129UAterryb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r367819100-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -861,6 +993,9 @@
     <t>04/26/2016</t>
   </si>
   <si>
+    <t>969sidneys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r346614641-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -873,6 +1008,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>annhN1249KC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r341484400-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -894,6 +1032,9 @@
     <t>Checked in on 12/28 for 5 nights. The price was excellent, however the room was terrible. The door was hard to open and close due to the pulled carpet. The bathroom sink stopper was stuck in an almost completely closed position. The tub faucet had mold inside the acrylic handle. The bathroom door had to be almost slammed shut before it would latch. There were several soft spots in the floor making me wonder if we'd fall through and we had to spray for bugs (brown roaches) nightly. I wish this was an exaggeration, but unfortunately it wasn't. When we checked out I told the desk clerk and the response I got was they'd have to check into it.More</t>
   </si>
   <si>
+    <t>Mountainbugsy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r337559742-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1047,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>arthurs810</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r336299798-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1059,9 @@
     <t>12/31/2015</t>
   </si>
   <si>
+    <t>K3517ZHangelav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r333535935-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1083,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>larryc445</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r324266458-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1104,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>davidwC9110HF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r322230562-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1122,9 @@
     <t>Had to check in outside late at night at a window around the corner with the rain blowing on me.  Bullet-proof glass and a tiny area to talk and hear through.  This is ok for Harlem, but not Burleson on the interstate.Room was dirty, smelly, and sticky.  The room was fairly good size though.  TV was newer.  Shower was creepy looking so I didn't shower.</t>
   </si>
   <si>
+    <t>Nelma P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r320500553-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1140,9 @@
     <t>I reserves a non-smoking room, and even I remark this by phone before arrival, they gave a smoking room. Everything was terrible there, the odor, insects, and it wasn't clean enough... I do not recommended</t>
   </si>
   <si>
+    <t>R1937KFpatriciam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r317620218-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1152,9 @@
     <t>10/10/2015</t>
   </si>
   <si>
+    <t>Kenneth V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r316455711-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1173,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Chevelta M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r315331652-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1185,9 @@
     <t>10/01/2015</t>
   </si>
   <si>
+    <t>Don S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r314864976-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1203,9 @@
     <t>Very run down place. The backroom door was broken, the ceiling looked as if it might collapse any moment in the bathroom. Maid did not clean coffee pot or leave replacement coffee when they cleaned the room. The internet connection never worked, I had to use my own cell service for internet access. It was just a place to sleep and then get out of. Would not stay there again based on condition for the little cost difference to stay at a nicer, cleaner place next door,</t>
   </si>
   <si>
+    <t>867wandak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r311828425-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1215,9 @@
     <t>09/19/2015</t>
   </si>
   <si>
+    <t>bowden421</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r295107734-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1230,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>micaelac191</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r291236053-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1242,9 @@
     <t>07/21/2015</t>
   </si>
   <si>
+    <t>Therresa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r290354320-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1263,9 @@
     <t>We stayed at the Days Inn for it was a hotel that we knew well. (had stayed there lots in 2012 &amp; 2013).  The heater was on in the room when we arrived.  We turned it to Lowest possible AC setting and 1/2 hr later called the front office telling them that the room was extrememly hot if they could move us to a different room.. The manager stated for us to give it another half hour then call back if needed... We were not satisfied with this result so we held our tongues and basically got to sleep bout 1 am due to the excessive heat.. When we got up the next morning and prepping for our showers and day events, and my husband had to clean out the bath tub in order to take a shower, and when i showered their was a roach on the upper wall of the shower... More</t>
   </si>
   <si>
+    <t>michelebS6096SA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r289369991-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1275,9 @@
     <t>07/15/2015</t>
   </si>
   <si>
+    <t>519rickl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r280716704-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1110,6 +1296,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>parrishd2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r277372132-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1311,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Diane S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r266313221-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1326,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Jenniederklein</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r261153240-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1347,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>RC21Dec2015a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r261027609-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1362,9 @@
     <t>One pot had lukewarm coffee one pot empty.  Orange juice was about quadruple concentrated and came out like maple syrup.  The room itself was nice and big and the water was hot in the shower, and the mattresses were very comfortable.</t>
   </si>
   <si>
+    <t>cklilmama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r260378152-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1374,9 @@
     <t>03/18/2015</t>
   </si>
   <si>
+    <t>879josephh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r253611180-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1389,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Madlene M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r253417206-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1200,6 +1407,9 @@
     <t xml:space="preserve">This hotel was terrible. I didn't even stay there. The TV won't come on. You could see through the front door when the door is closed, gap. It smelled like cigarettes and everything else, which I didn't realize when I reserved it online that it was a smoking room. I got another room at the La Quinta Inn but still paid for this room.  </t>
   </si>
   <si>
+    <t>Annie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r249196855-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1422,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Melissafoster41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r244463587-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1443,9 @@
     <t>Arrived To be told that the king-size non-smoking room we rented online, had been given to someone else so our only choice was two queen beds. Fine, Everyone makes mistakes, no biggie. I was assured it was a non-smoking room. Finally get to the room, open the door and the old stale cigarette smoke almost knocked me down before I noticed that one of the beds looked like someone had already crawled out of it. Covered pushed back, someone has been in this bed already!!! I wait outside... At 2am... While my fiancé walks around the building to the office. He finally comes back with key to another room. It smells better. Not good, but better. I start my bed bug check. None seen but several hairs that do not belong to us.  Sheets are stained blue ink and other unknown stuff. They smell "clean" but are stained and old!I go to take top cover off the bed because I've been told those are rarely washed and yea... I can say for sure they are not!!! Omg... So nasty! Both beds have obvious "human bodily fluid " stains. We pull those on the floor, then even the blanket because its questionable as well. I'm sooo tired and he has go travel for work in just a few hours which is why we even got a room there after a Christmas party so we HAVE to try and sleep. As I'm...Arrived To be told that the king-size non-smoking room we rented online, had been given to someone else so our only choice was two queen beds. Fine, Everyone makes mistakes, no biggie. I was assured it was a non-smoking room. Finally get to the room, open the door and the old stale cigarette smoke almost knocked me down before I noticed that one of the beds looked like someone had already crawled out of it. Covered pushed back, someone has been in this bed already!!! I wait outside... At 2am... While my fiancé walks around the building to the office. He finally comes back with key to another room. It smells better. Not good, but better. I start my bed bug check. None seen but several hairs that do not belong to us.  Sheets are stained blue ink and other unknown stuff. They smell "clean" but are stained and old!I go to take top cover off the bed because I've been told those are rarely washed and yea... I can say for sure they are not!!! Omg... So nasty! Both beds have obvious "human bodily fluid " stains. We pull those on the floor, then even the blanket because its questionable as well. I'm sooo tired and he has go travel for work in just a few hours which is why we even got a room there after a Christmas party so we HAVE to try and sleep. As I'm finally clearing my head enough to start to relax... About 3am I feel something on my face and grab it! It's some big,brown bug that runs under the bed!!! I spend another 20 minutes trying to find it to kill it and all I can find up under bed is filth, pepperoni from pizza and him wrappers. Nasty. Begin to try and get a couple hours of rest on the crappiest bed ever and the people in room above us arrive about around 4am. I'm pretty sure there were elephants up there...bowling... And possibly a stripper pole. Needless to say I got 0 sleep and everything I've read says no refunds/cancellations blah blah blah. Lesson learned. Do NOT even think about the Days "Crackhead" Inn!!!More</t>
   </si>
   <si>
+    <t>Jesus H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r241342302-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1458,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>ocdgramma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r234526929-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1254,6 +1473,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>LucyDMartin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r226997286-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1494,9 @@
     <t>Well I arrived here and checked in and when I got all my things to my room I discovered the ac was blowing cool air, not cold, and the room was musty and hot. I told them I wanted a new room, got one, and it's ok for a 2 star hotel but I was aggrivated that the bath tub nobs were stuck therefore only the shower head worked. The wifi was piss poor, couldn't connect for anything and when I called the front desk about it they told me to connect to the strongest wifi stream they had, I told her none of them were working and she said keep trying thank you and hung up. Lucky enough my computer work was already done or I would be completely screwed!! There was crusty pizza sauce looking stuff on my comforter, which I never use anyway because of hotel rumors but seriously that's just gross!!!! For 112$ for 2 nights I expect a clean, properly functioning room and wifi. More</t>
   </si>
   <si>
+    <t>Martin V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r223014669-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1515,9 @@
     <t>Responded August 23, 2014</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r210081975-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1530,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Laura H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r209951284-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1311,6 +1542,9 @@
     <t>06/11/2014</t>
   </si>
   <si>
+    <t>Sara B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r207512618-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1332,6 +1566,9 @@
     <t>I was a little disappointed with this hotel but when I remembered how much I paid for it, it was exactly what I got. The room smelled very stale when we got in but after the AC being on for a while it went away. There were only 3 pillows on the bed for the 2 of us which would have been managable but one of the pillow cases had stains on it so I refused to use it and one of the other pillows was horribly flat. When I asked for another pillow I was told there were no more. The TV was so low compared to the bed that it was hard to watch it while laying down in a normal position. We needed an iron but there was not one in the room so we had to get one from the main office which was ok but the ironing board was ripped and tattered and when my fiance went to iron his shirt, the iron had something on it that he had to try to wipe off. The cord to the hair dryer had a plastic bag thing on it that was dirty and greasy and the shower had a stain on the wall that looked like a huge bug was smeared on it. I also feel bad for anyone who stayed in the room below us because the floor to our room was raised a bit...I was a little disappointed with this hotel but when I remembered how much I paid for it, it was exactly what I got. The room smelled very stale when we got in but after the AC being on for a while it went away. There were only 3 pillows on the bed for the 2 of us which would have been managable but one of the pillow cases had stains on it so I refused to use it and one of the other pillows was horribly flat. When I asked for another pillow I was told there were no more. The TV was so low compared to the bed that it was hard to watch it while laying down in a normal position. We needed an iron but there was not one in the room so we had to get one from the main office which was ok but the ironing board was ripped and tattered and when my fiance went to iron his shirt, the iron had something on it that he had to try to wipe off. The cord to the hair dryer had a plastic bag thing on it that was dirty and greasy and the shower had a stain on the wall that looked like a huge bug was smeared on it. I also feel bad for anyone who stayed in the room below us because the floor to our room was raised a bit to where everytime we took a step the floor moved a little and sounded like it might make a louder sound below us. Overall, it could have been much worse of a stay but I have decided to stay clear of Day Inns just in case.More</t>
   </si>
   <si>
+    <t>down_da_bayou_grl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r185913994-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1348,6 +1585,9 @@
   </si>
   <si>
     <t>November 2013</t>
+  </si>
+  <si>
+    <t>teatexas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r185198914-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
@@ -1376,6 +1616,9 @@
 Bottom line...ok to sleep, don't eat the breakfast, hold your nose when...My brother in law came to town and they stayed at my mother in laws house so my husband and I had to stay at local hotel. This hotel was close to them, and we often stay at Days Inn, never disappointed,,,until now. Check in was ok, the young girl was friendly. The king room was huge, had all the usual stuff. Went into the bathroom, went to flush (I always check the shower, sink and toilet before unpacking, just a quirk). The toilet overflowed, I called the office and within a few minutes the man came, he fixed it. The sad thing is he said this happens often. All was okay for sleeping. They offer free breakfast...RUN. Juice, coffee, muffin and then they had 2 big boxes of cereal sitting on the counter with the box opened up, you were to pour out what you wanted. The area was dirty and it smelled so bad in the office/lobby/breakfast area. I understand the owners are not Americans, which is fine...BUT please it does not need to smell like your country. Then we came back at the night to sleep and the key would not work and we had to go to the office to get the key fixed. The lady kept arguing and said it should work, it went back and forth and she gave us another key...really.Bottom line...ok to sleep, don't eat the breakfast, hold your nose when in the lobby.More</t>
   </si>
   <si>
+    <t>Lamb165</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r178555711-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1634,9 @@
     <t xml:space="preserve">Good stay,Front desk Staff  is friendly and helpful.  Little hard to find location. Room looked like it had been recently remodeled. Everything was clean and in good shape. We missed the breakfast,because we came late night and can't woke up next day early enough to catch breakfast.But good stay for price paid. </t>
   </si>
   <si>
+    <t>tabbiejo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r176806082-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1406,6 +1652,9 @@
     <t>Rooms are disgusting, staff is rude and uncaring! Floors feel like you will fall through them &amp; they will not fix it or switch rooms or refund your money! Spoke with corprate office &amp; they offered a $20 voucher. This is Laughable. This place is a health hazard!   Do not stay here.  I posted pictures to show how gross the rooms are</t>
   </si>
   <si>
+    <t>Terry N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r174411624-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1418,6 +1667,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Charlotte H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r164661684-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1430,6 +1682,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>abqconlons</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r158894171-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1442,6 +1697,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Melanie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r158571345-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1712,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Dennis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r157561072-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1463,6 +1724,9 @@
     <t>04/12/2013</t>
   </si>
   <si>
+    <t>J G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r157223765-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1736,9 @@
     <t>04/09/2013</t>
   </si>
   <si>
+    <t>Debra B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r149960990-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1755,9 @@
   </si>
   <si>
     <t>January 2013</t>
+  </si>
+  <si>
+    <t>Sharron C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r148616347-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
@@ -1525,6 +1795,9 @@
 We did not attend for the complimentary breakfast so I have no idea what...I have stayed at numerous Days Inn and generally, they are a good room for a good price. That’s why I didn’t even bother to check the review for this location—and once I arrived, I wished I had!Pros: cheap. Decent location but not as good as the one a few exits downCons: Overall: run down hotelFilthy:  One of the towels had dirt on it and a grease stain of some kind. The bedspread was equally dirty and yellow. The sheets were clean but I have to admit I lifted them up to check for bed bugs. I didn’t touch the bedspreadI can deal with a lot of things but a dirty room is NOT one of them! Once, I stayed in a hotel in Flagstaff AZ for 16.00 a night. It was small. A tad shabby. But clean as hell. I had no problem with it.  I say this so people will not think  I am not saying this just to be picky.Paper-thin walls. I could hear ALL the traffic even though we weren’t facing the highway. Could hear people above us and they didn’t seem like they were doing anything out of the ordinaryAnd I am fairly sure there was a hooker waiting to get a room when we were checking in. Though it’s hard to tell now days….:)We did not attend for the complimentary breakfast so I have no idea what it consisted ofAnyway, for the price, it’s just not worth it. Spend 20.00 more and stay at  la Quinta, Super 8, Holiday Inn, etc. There are a LOT of choices. This Days Inn is a a poor, sad and disgusting example of the chain. I wished I had taken pictures.More</t>
   </si>
   <si>
+    <t>lahend11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r148156249-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1540,6 +1813,9 @@
     <t>ROACHES! Need i say more. The hair dryer did not work fortunately or it may have blew the cockroach hidding in it out on my wife. Big rooms easy access and close to the pool (full of leaves). I will not stay here again just because of the roach but it is worth the price as long as you like dirty rooms with roaches.</t>
   </si>
   <si>
+    <t>Jim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r142479182-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1558,6 +1834,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Mark O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r137674414-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
   </si>
   <si>
@@ -1577,6 +1856,9 @@
   </si>
   <si>
     <t>Stayed here back in June and I felt the place was just fine.  The room was twice as big as another hotel I had stayed at for twice the money.  Yes there was a stain on the carpet but the sheets were clean and fresh and the bathroom clean.  We got a room on the ground floor and it was nice that the room had a door that was right next to our vehicle on one end of the room and about 100 feet from the pool on the other side of the room.  Other nice thing is that it's right off of I-35 West so no problems getting there.  After getting to my room I actually walked back to the front desk to make sure it was as cheap as they said it was.  Yes I was that shocked by the size of the room and the value of this motel.  I would have easily stayed here multiple nights had I not been heading home.  Will certainly go there again if I'm ever in the area again.  Very much worth the price.More</t>
+  </si>
+  <si>
+    <t>J D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55557-d107308-r119917188-Days_Inn_Burleson_FT_Worth-Burleson_Texas.html</t>
@@ -2102,43 +2384,47 @@
       <c r="A2" t="n">
         <v>28269</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>128688</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2162,50 +2448,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>28269</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>10690</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2229,7 +2519,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -2242,37 +2532,37 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2296,50 +2586,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>28269</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>128689</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2363,50 +2657,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>28269</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>4079</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2418,56 +2716,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>28269</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>128690</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2491,35 +2793,39 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>28269</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>62054</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2527,10 +2833,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2551,51 +2857,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>28269</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>128691</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>92</v>
       </c>
-      <c r="J9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>87</v>
-      </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2609,50 +2916,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>28269</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>128692</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2666,50 +2977,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>28269</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>128693</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2733,35 +3048,39 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>28269</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>128694</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -2769,10 +3088,10 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2793,36 +3112,37 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>28269</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>128695</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2830,10 +3150,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2854,51 +3174,52 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>28269</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>128696</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2922,50 +3243,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>28269</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>128697</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>126</v>
       </c>
-      <c r="K15" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15" t="s">
-        <v>128</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>115</v>
-      </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2989,50 +3314,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>28269</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>128698</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3052,50 +3381,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>28269</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>18967</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -3117,50 +3450,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>28269</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>128699</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3184,35 +3521,39 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>28269</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>128700</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -3220,10 +3561,10 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3244,36 +3585,37 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>28269</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>128701</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -3281,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3305,36 +3647,37 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>28269</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>128702</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3342,10 +3685,10 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3366,51 +3709,52 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>28269</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>128703</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3434,35 +3778,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>28269</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>128704</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3470,10 +3818,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="O23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3494,51 +3842,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>28269</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>128705</v>
+      </c>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="J24" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3556,50 +3905,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>28269</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>128706</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3613,50 +3966,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28269</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>128707</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="J26" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3680,50 +4037,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>28269</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>128708</v>
+      </c>
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="J27" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="K27" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3747,35 +4108,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>28269</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>128709</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3783,10 +4148,10 @@
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3807,51 +4172,52 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28269</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3865,41 +4231,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28269</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>128710</v>
+      </c>
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="J30" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
@@ -3918,50 +4288,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28269</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>128711</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="J31" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="O31" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3979,50 +4353,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>28269</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>128712</v>
+      </c>
+      <c r="C32" t="s">
+        <v>233</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="J32" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="K32" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -4042,41 +4420,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>28269</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>128713</v>
+      </c>
+      <c r="C33" t="s">
+        <v>241</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="K33" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -4095,35 +4477,39 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>28269</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>128714</v>
+      </c>
+      <c r="C34" t="s">
+        <v>247</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -4131,10 +4517,10 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4155,33 +4541,34 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>28269</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>128715</v>
+      </c>
+      <c r="C35" t="s">
+        <v>251</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="J35" t="s"/>
       <c r="K35" t="s"/>
@@ -4198,36 +4585,37 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>28269</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>128716</v>
+      </c>
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="J36" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4235,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -4257,51 +4645,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>28269</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>128717</v>
+      </c>
+      <c r="C37" t="s">
+        <v>259</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="J37" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="K37" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="O37" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4325,48 +4714,52 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>28269</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>9679</v>
+      </c>
+      <c r="C38" t="s">
+        <v>266</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="J38" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4390,50 +4783,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>28269</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>128718</v>
+      </c>
+      <c r="C39" t="s">
+        <v>273</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="K39" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="O39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4453,50 +4850,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>28269</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>128719</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="J40" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4516,50 +4917,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>28269</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>128720</v>
+      </c>
+      <c r="C41" t="s">
+        <v>286</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="J41" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="K41" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="O41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4581,50 +4986,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>28269</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>128721</v>
+      </c>
+      <c r="C42" t="s">
+        <v>293</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="J42" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -4648,50 +5057,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>28269</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>8070</v>
+      </c>
+      <c r="C43" t="s">
+        <v>299</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="J43" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="K43" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4709,48 +5122,52 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>28269</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>128722</v>
+      </c>
+      <c r="C44" t="s">
+        <v>306</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="J44" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -4774,50 +5191,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>28269</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>4594</v>
+      </c>
+      <c r="C45" t="s">
+        <v>311</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="J45" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="K45" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="O45" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4841,48 +5262,52 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>28269</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>128723</v>
+      </c>
+      <c r="C46" t="s">
+        <v>317</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="J46" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4906,48 +5331,52 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>28269</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>128724</v>
+      </c>
+      <c r="C47" t="s">
+        <v>321</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="J47" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="O47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4971,50 +5400,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>28269</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>128725</v>
+      </c>
+      <c r="C48" t="s">
+        <v>326</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="K48" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5034,35 +5467,39 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>28269</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>128726</v>
+      </c>
+      <c r="C49" t="s">
+        <v>334</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="J49" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -5070,10 +5507,10 @@
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5094,36 +5531,37 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>28269</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>128727</v>
+      </c>
+      <c r="C50" t="s">
+        <v>339</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="J50" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -5131,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="O50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5155,36 +5593,37 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>28269</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>128728</v>
+      </c>
+      <c r="C51" t="s">
+        <v>343</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="J51" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5192,10 +5631,10 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5216,36 +5655,37 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>28269</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>128705</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="J52" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5253,10 +5693,10 @@
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="O52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5277,51 +5717,52 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>28269</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>128729</v>
+      </c>
+      <c r="C53" t="s">
+        <v>351</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="J53" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="K53" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="L53" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="O53" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5345,50 +5786,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>28269</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>128730</v>
+      </c>
+      <c r="C54" t="s">
+        <v>358</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="J54" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="K54" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="L54" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5412,50 +5857,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>28269</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>128731</v>
+      </c>
+      <c r="C55" t="s">
+        <v>364</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="J55" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="K55" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="O55" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5479,35 +5928,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>28269</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>128732</v>
+      </c>
+      <c r="C56" t="s">
+        <v>370</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="J56" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5515,10 +5968,10 @@
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5539,51 +5992,52 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>28269</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>66909</v>
+      </c>
+      <c r="C57" t="s">
+        <v>374</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="J57" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="K57" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="L57" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="O57" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5607,35 +6061,39 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>28269</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>128733</v>
+      </c>
+      <c r="C58" t="s">
+        <v>381</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>327</v>
+        <v>382</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="J58" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5643,10 +6101,10 @@
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5667,51 +6125,52 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>28269</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>14817</v>
+      </c>
+      <c r="C59" t="s">
+        <v>385</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="J59" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="K59" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="L59" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="O59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -5735,35 +6194,39 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>28269</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>128734</v>
+      </c>
+      <c r="C60" t="s">
+        <v>391</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="J60" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -5771,10 +6234,10 @@
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="O60" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5795,36 +6258,37 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>28269</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>128735</v>
+      </c>
+      <c r="C61" t="s">
+        <v>395</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="J61" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -5832,10 +6296,10 @@
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="O61" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5856,36 +6320,37 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>28269</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>128736</v>
+      </c>
+      <c r="C62" t="s">
+        <v>400</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="J62" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -5893,10 +6358,10 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="O62" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -5917,51 +6382,52 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>28269</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>128737</v>
+      </c>
+      <c r="C63" t="s">
+        <v>404</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="J63" t="s">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="K63" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="L63" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -5985,35 +6451,39 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>28269</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>128738</v>
+      </c>
+      <c r="C64" t="s">
+        <v>411</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="J64" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6021,10 +6491,10 @@
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="O64" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6045,51 +6515,52 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>28269</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>128739</v>
+      </c>
+      <c r="C65" t="s">
+        <v>415</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="J65" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="K65" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="L65" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="O65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6113,35 +6584,39 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>28269</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>128740</v>
+      </c>
+      <c r="C66" t="s">
+        <v>422</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>360</v>
+        <v>423</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="J66" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6149,10 +6624,10 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="O66" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6171,36 +6646,37 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>28269</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>5066</v>
+      </c>
+      <c r="C67" t="s">
+        <v>427</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="J67" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6208,10 +6684,10 @@
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="O67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6232,51 +6708,52 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>28269</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>128741</v>
+      </c>
+      <c r="C68" t="s">
+        <v>432</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="J68" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="K68" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="L68" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="O68" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6294,50 +6771,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>28269</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>19519</v>
+      </c>
+      <c r="C69" t="s">
+        <v>439</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="J69" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="K69" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="L69" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="O69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6351,35 +6832,39 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>28269</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>128742</v>
+      </c>
+      <c r="C70" t="s">
+        <v>444</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>378</v>
+        <v>445</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>379</v>
+        <v>446</v>
       </c>
       <c r="J70" t="s">
-        <v>380</v>
+        <v>447</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6387,10 +6872,10 @@
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6411,36 +6896,37 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>28269</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>128743</v>
+      </c>
+      <c r="C71" t="s">
+        <v>448</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="J71" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6448,10 +6934,10 @@
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="O71" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -6472,51 +6958,52 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>28269</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>128744</v>
+      </c>
+      <c r="C72" t="s">
+        <v>453</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="J72" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="K72" t="s">
-        <v>388</v>
+        <v>457</v>
       </c>
       <c r="L72" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -6540,35 +7027,39 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>28269</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>882</v>
+      </c>
+      <c r="C73" t="s">
+        <v>459</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>391</v>
+        <v>461</v>
       </c>
       <c r="J73" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -6576,10 +7067,10 @@
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>393</v>
+        <v>463</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -6600,42 +7091,43 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>28269</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>128745</v>
+      </c>
+      <c r="C74" t="s">
+        <v>464</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>395</v>
+        <v>466</v>
       </c>
       <c r="J74" t="s">
-        <v>396</v>
+        <v>467</v>
       </c>
       <c r="K74" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s">
-        <v>398</v>
+        <v>469</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
@@ -6664,35 +7156,39 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>399</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>28269</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>117401</v>
+      </c>
+      <c r="C75" t="s">
+        <v>471</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>401</v>
+        <v>473</v>
       </c>
       <c r="J75" t="s">
-        <v>402</v>
+        <v>474</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -6700,10 +7196,10 @@
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>403</v>
+        <v>475</v>
       </c>
       <c r="O75" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6724,36 +7220,37 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>28269</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>128746</v>
+      </c>
+      <c r="C76" t="s">
+        <v>476</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="J76" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -6761,10 +7258,10 @@
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="O76" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -6785,42 +7282,43 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>28269</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>128747</v>
+      </c>
+      <c r="C77" t="s">
+        <v>481</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>408</v>
+        <v>482</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="J77" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="K77" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="L77" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
@@ -6849,48 +7347,52 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>28269</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>93900</v>
+      </c>
+      <c r="C78" t="s">
+        <v>488</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>414</v>
+        <v>489</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>415</v>
+        <v>490</v>
       </c>
       <c r="J78" t="s">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -6912,54 +7414,58 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="X78" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="Y78" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>28269</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C79" t="s">
+        <v>495</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="J79" t="s">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="O79" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -6981,54 +7487,58 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="X79" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="Y79" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>28269</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C80" t="s">
+        <v>500</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="J80" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="O80" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7050,56 +7560,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="X80" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="Y80" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>28269</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>38377</v>
+      </c>
+      <c r="C81" t="s">
+        <v>504</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>428</v>
+        <v>506</v>
       </c>
       <c r="J81" t="s">
-        <v>429</v>
+        <v>507</v>
       </c>
       <c r="K81" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="L81" t="s">
-        <v>431</v>
+        <v>509</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="O81" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -7121,56 +7635,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="X81" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="Y81" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>28269</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>128748</v>
+      </c>
+      <c r="C82" t="s">
+        <v>512</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>434</v>
+        <v>513</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>435</v>
+        <v>514</v>
       </c>
       <c r="J82" t="s">
-        <v>436</v>
+        <v>515</v>
       </c>
       <c r="K82" t="s">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="L82" t="s">
-        <v>438</v>
+        <v>517</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>439</v>
+        <v>518</v>
       </c>
       <c r="O82" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7194,50 +7712,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>438</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>28269</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>128749</v>
+      </c>
+      <c r="C83" t="s">
+        <v>519</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="J83" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
       <c r="K83" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="L83" t="s">
-        <v>444</v>
+        <v>524</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>439</v>
+        <v>518</v>
       </c>
       <c r="O83" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7261,41 +7783,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>28269</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>128750</v>
+      </c>
+      <c r="C84" t="s">
+        <v>526</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>446</v>
+        <v>527</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>447</v>
+        <v>528</v>
       </c>
       <c r="J84" t="s">
-        <v>448</v>
+        <v>529</v>
       </c>
       <c r="K84" t="s">
-        <v>449</v>
+        <v>530</v>
       </c>
       <c r="L84" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
@@ -7324,41 +7850,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>28269</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>128751</v>
+      </c>
+      <c r="C85" t="s">
+        <v>532</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>451</v>
+        <v>533</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>452</v>
+        <v>534</v>
       </c>
       <c r="J85" t="s">
-        <v>453</v>
+        <v>535</v>
       </c>
       <c r="K85" t="s">
-        <v>454</v>
+        <v>536</v>
       </c>
       <c r="L85" t="s">
-        <v>455</v>
+        <v>537</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
@@ -7387,35 +7917,39 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>455</v>
+        <v>537</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>28269</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>32915</v>
+      </c>
+      <c r="C86" t="s">
+        <v>538</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>456</v>
+        <v>539</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>457</v>
+        <v>540</v>
       </c>
       <c r="J86" t="s">
-        <v>458</v>
+        <v>541</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -7423,10 +7957,10 @@
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>459</v>
+        <v>542</v>
       </c>
       <c r="O86" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -7447,36 +7981,37 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
-      <c r="Y86" t="s"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>28269</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>128752</v>
+      </c>
+      <c r="C87" t="s">
+        <v>543</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>460</v>
+        <v>544</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
       <c r="J87" t="s">
-        <v>462</v>
+        <v>546</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -7484,10 +8019,10 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>463</v>
+        <v>547</v>
       </c>
       <c r="O87" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -7508,36 +8043,37 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>28269</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>128753</v>
+      </c>
+      <c r="C88" t="s">
+        <v>548</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>464</v>
+        <v>549</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>465</v>
+        <v>550</v>
       </c>
       <c r="J88" t="s">
-        <v>466</v>
+        <v>551</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -7545,10 +8081,10 @@
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>467</v>
+        <v>552</v>
       </c>
       <c r="O88" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -7569,36 +8105,37 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>28269</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>23326</v>
+      </c>
+      <c r="C89" t="s">
+        <v>553</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>468</v>
+        <v>554</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>469</v>
+        <v>555</v>
       </c>
       <c r="J89" t="s">
-        <v>470</v>
+        <v>556</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -7606,10 +8143,10 @@
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>471</v>
+        <v>557</v>
       </c>
       <c r="O89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -7630,36 +8167,37 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>28269</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>27855</v>
+      </c>
+      <c r="C90" t="s">
+        <v>558</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>472</v>
+        <v>559</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>473</v>
+        <v>560</v>
       </c>
       <c r="J90" t="s">
-        <v>474</v>
+        <v>561</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s"/>
@@ -7667,10 +8205,10 @@
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>467</v>
+        <v>552</v>
       </c>
       <c r="O90" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -7691,36 +8229,37 @@
       <c r="V90" t="n">
         <v>0</v>
       </c>
-      <c r="W90" t="s"/>
-      <c r="X90" t="s"/>
-      <c r="Y90" t="s"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>28269</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>2569</v>
+      </c>
+      <c r="C91" t="s">
+        <v>562</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>476</v>
+        <v>564</v>
       </c>
       <c r="J91" t="s">
-        <v>477</v>
+        <v>565</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -7728,10 +8267,10 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>467</v>
+        <v>552</v>
       </c>
       <c r="O91" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -7752,51 +8291,52 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>28269</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>15714</v>
+      </c>
+      <c r="C92" t="s">
+        <v>566</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>479</v>
+        <v>568</v>
       </c>
       <c r="J92" t="s">
-        <v>480</v>
+        <v>569</v>
       </c>
       <c r="K92" t="s">
-        <v>481</v>
+        <v>570</v>
       </c>
       <c r="L92" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>483</v>
+        <v>572</v>
       </c>
       <c r="O92" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -7820,50 +8360,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>28269</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>128754</v>
+      </c>
+      <c r="C93" t="s">
+        <v>573</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>485</v>
+        <v>575</v>
       </c>
       <c r="J93" t="s">
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="K93" t="s">
-        <v>487</v>
+        <v>577</v>
       </c>
       <c r="L93" t="s">
-        <v>488</v>
+        <v>578</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>489</v>
+        <v>579</v>
       </c>
       <c r="O93" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -7887,41 +8431,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>490</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>28269</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>128755</v>
+      </c>
+      <c r="C94" t="s">
+        <v>581</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>491</v>
+        <v>582</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>492</v>
+        <v>583</v>
       </c>
       <c r="J94" t="s">
-        <v>493</v>
+        <v>584</v>
       </c>
       <c r="K94" t="s">
-        <v>494</v>
+        <v>585</v>
       </c>
       <c r="L94" t="s">
-        <v>495</v>
+        <v>586</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
@@ -7950,50 +8498,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>495</v>
+        <v>586</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>28269</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>8437</v>
+      </c>
+      <c r="C95" t="s">
+        <v>587</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>496</v>
+        <v>588</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>497</v>
+        <v>589</v>
       </c>
       <c r="J95" t="s">
-        <v>498</v>
+        <v>590</v>
       </c>
       <c r="K95" t="s">
-        <v>499</v>
+        <v>591</v>
       </c>
       <c r="L95" t="s">
-        <v>500</v>
+        <v>592</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
       <c r="O95" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8017,50 +8569,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>500</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>28269</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>20204</v>
+      </c>
+      <c r="C96" t="s">
+        <v>594</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>502</v>
+        <v>595</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>503</v>
+        <v>596</v>
       </c>
       <c r="J96" t="s">
-        <v>504</v>
+        <v>597</v>
       </c>
       <c r="K96" t="s">
-        <v>505</v>
+        <v>598</v>
       </c>
       <c r="L96" t="s">
-        <v>506</v>
+        <v>599</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>507</v>
+        <v>600</v>
       </c>
       <c r="O96" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8084,50 +8640,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>508</v>
+        <v>601</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>28269</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>13557</v>
+      </c>
+      <c r="C97" t="s">
+        <v>602</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>509</v>
+        <v>603</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>510</v>
+        <v>604</v>
       </c>
       <c r="J97" t="s">
-        <v>511</v>
+        <v>605</v>
       </c>
       <c r="K97" t="s">
-        <v>512</v>
+        <v>606</v>
       </c>
       <c r="L97" t="s">
-        <v>513</v>
+        <v>607</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>514</v>
+        <v>608</v>
       </c>
       <c r="O97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -8151,7 +8711,7 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>515</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
